--- a/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2016_top_box_office.xlsx
+++ b/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2016_top_box_office.xlsx
@@ -448,24 +448,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Finding Dory</t>
+          <t>Rogue One: A Star Wars Story</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$486,295,561</t>
+          <t>$532,177,324</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rogue One: A Star Wars Story</t>
+          <t>Finding Dory</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$408,235,850</t>
+          <t>$486,295,561</t>
         </is>
       </c>
     </row>
@@ -556,24 +556,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Star Wars: Episode VII - The Force Awakens</t>
+          <t>Sing</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$284,694,956</t>
+          <t>$270,395,425</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Doctor Strange</t>
+          <t>Moana</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$229,876,337</t>
+          <t>$248,757,044</t>
         </is>
       </c>
     </row>
@@ -585,31 +585,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$222,675,573</t>
+          <t>$234,037,575</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Moana</t>
+          <t>Doctor Strange</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$206,477,478</t>
+          <t>$232,641,920</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The Revenant</t>
+          <t>Hidden Figures</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$182,765,375</t>
+          <t>$169,607,287</t>
         </is>
       </c>
     </row>
@@ -652,24 +652,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sing</t>
+          <t>Trolls</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$152,853,995</t>
+          <t>$153,707,064</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Trolls</t>
+          <t>La La Land</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$150,130,292</t>
+          <t>$151,101,803</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$124,976,335</t>
+          <t>$125,070,033</t>
         </is>
       </c>
     </row>
@@ -784,96 +784,96 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sausage Party</t>
+          <t>Arrival</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$97,685,686</t>
+          <t>$100,546,139</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>The Magnificent Seven</t>
+          <t>Passengers</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$93,420,253</t>
+          <t>$100,014,699</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Arrival</t>
+          <t>Sausage Party</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$91,676,099</t>
+          <t>$97,685,686</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ride Along 2</t>
+          <t>The Magnificent Seven</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$91,221,830</t>
+          <t>$93,432,655</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Don't Breathe</t>
+          <t>Ride Along 2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$89,217,875</t>
+          <t>$91,221,830</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Miss Peregrine's Home for Peculiar Children</t>
+          <t>Don't Breathe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$86,945,137</t>
+          <t>$89,217,875</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>The Accountant</t>
+          <t>Miss Peregrine's Home for Peculiar Children</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$85,856,696</t>
+          <t>$87,242,834</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Daddy's Home</t>
+          <t>The Accountant</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$85,672,859</t>
+          <t>$86,260,045</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$72,414,850</t>
+          <t>$72,679,278</t>
         </is>
       </c>
     </row>
@@ -988,36 +988,36 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Allegiant</t>
+          <t>Hacksaw Ridge</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$66,184,051</t>
+          <t>$67,209,615</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Now You See Me 2</t>
+          <t>Allegiant</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$65,075,540</t>
+          <t>$66,184,051</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hacksaw Ridge</t>
+          <t>Now You See Me 2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$64,463,214</t>
+          <t>$65,075,540</t>
         </is>
       </c>
     </row>
@@ -1084,300 +1084,300 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>My Big Fat Greek Wedding 2</t>
+          <t>Why Him?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$59,689,605</t>
+          <t>$60,323,786</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Jack Reacher: Never Go Back</t>
+          <t>My Big Fat Greek Wedding 2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$58,546,937</t>
+          <t>$59,689,605</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Me Before You</t>
+          <t>Jack Reacher: Never Go Back</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$56,245,075</t>
+          <t>$58,697,076</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>The BFG</t>
+          <t>Fences</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$55,483,770</t>
+          <t>$57,682,904</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Neighbors 2: Sorority Rising</t>
+          <t>Me Before You</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$55,455,765</t>
+          <t>$56,245,075</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Passengers</t>
+          <t>The BFG</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$55,380,209</t>
+          <t>$55,483,770</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>The Shallows</t>
+          <t>Neighbors 2: Sorority Rising</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$55,124,043</t>
+          <t>$55,455,765</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Barbershop: The Next Cut</t>
+          <t>The Shallows</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$54,030,051</t>
+          <t>$55,124,043</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>13 Hours</t>
+          <t>Office Christmas Party</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$52,853,219</t>
+          <t>$54,767,494</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Office Christmas Party</t>
+          <t>Assassin's Creed</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$49,815,176</t>
+          <t>$54,647,948</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>The Huntsman: Winter's War</t>
+          <t>Barbershop: The Next Cut</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$48,390,190</t>
+          <t>$54,030,051</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Kubo and the Two Strings</t>
+          <t>13 Hours</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$48,023,088</t>
+          <t>$52,853,219</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Warcraft</t>
+          <t>Lion</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$47,365,290</t>
+          <t>$51,738,905</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>How to Be Single</t>
+          <t>The Huntsman: Winter's War</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$46,843,513</t>
+          <t>$48,390,190</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>The Big Short</t>
+          <t>Kubo and the Two Strings</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$46,264,692</t>
+          <t>$48,023,088</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Mike and Dave Need Wedding Dates</t>
+          <t>Manchester by the Sea</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$46,009,673</t>
+          <t>$47,695,371</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>War Dogs</t>
+          <t>Warcraft</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$43,034,523</t>
+          <t>$47,365,290</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Almost Christmas</t>
+          <t>How to Be Single</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$41,964,925</t>
+          <t>$46,843,513</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Money Monster</t>
+          <t>Mike and Dave Need Wedding Dates</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$41,012,075</t>
+          <t>$46,009,673</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>The Hateful Eight</t>
+          <t>War Dogs</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$40,778,206</t>
+          <t>$43,034,523</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Allied</t>
+          <t>Almost Christmas</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$39,541,921</t>
+          <t>$42,158,780</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nerve</t>
+          <t>Money Monster</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$38,583,626</t>
+          <t>$41,012,075</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sisters</t>
+          <t>Allied</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$37,921,265</t>
+          <t>$40,098,064</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Risen</t>
+          <t>Nerve</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$36,880,033</t>
+          <t>$38,583,626</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Assassin's Creed</t>
+          <t>Risen</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$36,415,167</t>
+          <t>$36,880,033</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$34,221,651</t>
+          <t>$34,343,574</t>
         </is>
       </c>
     </row>
@@ -1468,36 +1468,36 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Gods of Egypt</t>
+          <t>Patriots Day</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$31,153,464</t>
+          <t>$31,886,361</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>La La Land</t>
+          <t>Gods of Egypt</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$30,980,271</t>
+          <t>$31,153,464</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Why Him?</t>
+          <t>Collateral Beauty</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$30,633,916</t>
+          <t>$31,016,021</t>
         </is>
       </c>
     </row>
@@ -1516,1332 +1516,1332 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Alvin and the Chipmunks: The Road Chip</t>
+          <t>When the Bough Breaks</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$30,311,560</t>
+          <t>$29,747,603</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>When the Bough Breaks</t>
+          <t>Zoolander 2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$29,747,603</t>
+          <t>$28,848,693</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Zoolander 2</t>
+          <t>Moonlight</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$28,848,693</t>
+          <t>$27,854,932</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Joy</t>
+          <t>The Finest Hours</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$28,141,138</t>
+          <t>$27,569,558</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>The Finest Hours</t>
+          <t>Florence Foster Jenkins</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$27,569,558</t>
+          <t>$27,383,770</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Florence Foster Jenkins</t>
+          <t>Hell or High Water</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$27,383,770</t>
+          <t>$27,007,844</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Manchester by the Sea</t>
+          <t>The Forest</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$27,055,039</t>
+          <t>$26,594,261</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Hell or High Water</t>
+          <t>Ben-Hur</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$27,007,844</t>
+          <t>$26,410,477</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>The Forest</t>
+          <t>The Witch</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$26,594,261</t>
+          <t>$25,138,705</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ben-Hur</t>
+          <t>Bridget Jones's Baby</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$26,410,477</t>
+          <t>$24,252,420</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Fences</t>
+          <t>Kevin Hart: What Now?</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$26,330,971</t>
+          <t>$23,591,043</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>The Witch</t>
+          <t>Whiskey Tango Foxtrot</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$25,138,705</t>
+          <t>$23,083,334</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Collateral Beauty</t>
+          <t>Snowden</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$24,342,478</t>
+          <t>$21,587,519</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Bridget Jones's Baby</t>
+          <t>Mechanic: Resurrection</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$24,252,420</t>
+          <t>$21,218,403</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kevin Hart: What Now?</t>
+          <t>Free State of Jones</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$23,591,043</t>
+          <t>$20,810,036</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Whiskey Tango Foxtrot</t>
+          <t>Blair Witch</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$23,083,334</t>
+          <t>$20,777,061</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Snowden</t>
+          <t>God's Not Dead 2</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$21,587,519</t>
+          <t>$20,774,575</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Mechanic: Resurrection</t>
+          <t>Keanu</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$21,218,403</t>
+          <t>$20,591,853</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Free State of Jones</t>
+          <t>Middle School: The Worst Years of My Life</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$20,810,036</t>
+          <t>$20,007,149</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Blair Witch</t>
+          <t>Nine Lives</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$20,777,061</t>
+          <t>$19,700,032</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>God's Not Dead 2</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$20,774,575</t>
+          <t>$19,206,207</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Keanu</t>
+          <t>The Choice</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$20,591,853</t>
+          <t>$18,730,891</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Middle School: The Worst Years of My Life</t>
+          <t>Eye in the Sky</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$20,007,149</t>
+          <t>$18,704,595</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Nine Lives</t>
+          <t>Bad Santa 2</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$19,700,032</t>
+          <t>$17,782,178</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Masterminds</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$19,206,207</t>
+          <t>$17,368,022</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Spotlight</t>
+          <t>Norm of the North</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$19,131,897</t>
+          <t>$17,062,499</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Brooklyn</t>
+          <t>The Birth of a Nation</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$18,758,748</t>
+          <t>$15,861,566</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>The Choice</t>
+          <t>Eddie the Eagle</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$18,730,891</t>
+          <t>$15,789,389</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Eye in the Sky</t>
+          <t>A Beautiful Planet</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$18,704,595</t>
+          <t>$15,650,615</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Bad Santa 2</t>
+          <t>The Infiltrator</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$17,710,126</t>
+          <t>$15,436,808</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Masterminds</t>
+          <t>Keeping Up with the Joneses</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$17,368,022</t>
+          <t>$14,904,426</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Concussion</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$17,122,105</t>
+          <t>$14,708,696</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Norm of the North</t>
+          <t>Hello, My Name Is Doris</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$17,062,499</t>
+          <t>$14,444,999</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>The Birth of a Nation</t>
+          <t>The Edge of Seventeen</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$15,861,566</t>
+          <t>$14,431,633</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Eddie the Eagle</t>
+          <t>Love &amp; Friendship</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$15,789,389</t>
+          <t>$14,016,568</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>The Infiltrator</t>
+          <t>Jackie</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$15,436,808</t>
+          <t>$13,960,394</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Keeping Up with the Joneses</t>
+          <t>Hillary's America: The Secret History of the Democratic Party</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$14,904,426</t>
+          <t>$13,099,931</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Triple 9</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$14,708,696</t>
+          <t>$12,639,297</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hello, My Name Is Doris</t>
+          <t>The Light Between Oceans</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$14,444,999</t>
+          <t>$12,545,979</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>The Edge of Seventeen</t>
+          <t>Dangal</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$14,394,402</t>
+          <t>$12,391,761</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Love &amp; Friendship</t>
+          <t>Fifty Shades of Black</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$14,016,568</t>
+          <t>$11,686,940</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Point Break</t>
+          <t>No manches Frida</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$13,197,946</t>
+          <t>$11,528,613</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Hillary's America: The Secret History of the Democratic Party</t>
+          <t>Café Society</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$13,099,931</t>
+          <t>$11,103,205</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Triple 9</t>
+          <t>Pride and Prejudice and Zombies</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$12,639,297</t>
+          <t>$10,938,134</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>The Light Between Oceans</t>
+          <t>The Darkness</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$12,545,979</t>
+          <t>$10,753,574</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Moonlight</t>
+          <t>Nocturnal Animals</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$12,489,099</t>
+          <t>$10,663,357</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>The Good Dinosaur</t>
+          <t>Live by Night</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$12,370,650</t>
+          <t>$10,378,555</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>The Hunger Games: Mockingjay - Part 2</t>
+          <t>The Perfect Match</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$12,154,781</t>
+          <t>$9,669,521</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Fifty Shades of Black</t>
+          <t>Popstar: Never Stop Never Stopping</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$11,686,940</t>
+          <t>$9,639,125</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>No manches Frida</t>
+          <t>Hardcore Henry</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$11,528,613</t>
+          <t>$9,252,038</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Café Society</t>
+          <t>Meet the Blacks</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$11,103,205</t>
+          <t>$9,097,072</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Pride and Prejudice and Zombies</t>
+          <t>Queen of Katwe</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$10,938,134</t>
+          <t>$8,874,389</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>The Darkness</t>
+          <t>Ratchet &amp; Clank</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$10,753,574</t>
+          <t>$8,821,329</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Creed</t>
+          <t>The Lobster2016 Re-release</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$10,382,416</t>
+          <t>$8,700,374</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Nocturnal Animals</t>
+          <t>The Wild Life</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$10,107,726</t>
+          <t>$8,005,586</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The Lady in the Van</t>
+          <t>Loving</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$9,973,503</t>
+          <t>$7,751,969</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Room</t>
+          <t>Silence</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$9,816,901</t>
+          <t>$7,100,177</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>The Perfect Match</t>
+          <t>Shut In</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$9,669,521</t>
+          <t>$6,900,335</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Popstar: Never Stop Never Stopping</t>
+          <t>The Brothers Grimsby</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$9,639,125</t>
+          <t>$6,874,837</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Hardcore Henry</t>
+          <t>The Young Messiah</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$9,252,038</t>
+          <t>$6,490,401</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Meet the Blacks</t>
+          <t>Southside with You</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$9,097,072</t>
+          <t>$6,304,223</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Carol</t>
+          <t>Sultan</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>$8,910,357</t>
+          <t>$6,200,000</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Queen of Katwe</t>
+          <t>Captain Fantastic</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$8,850,753</t>
+          <t>$5,879,835</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Ratchet &amp; Clank</t>
+          <t>20th Century Women</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$8,821,329</t>
+          <t>$5,664,764</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>The Lobster2016 Re-release</t>
+          <t>Hunt for the Wilderpeople</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$8,700,374</t>
+          <t>$5,205,468</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Dangal</t>
+          <t>Bleed for This</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$8,354,643</t>
+          <t>$5,083,906</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A Beautiful Planet</t>
+          <t>Incarnate</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$8,222,609</t>
+          <t>$4,799,774</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>The Wild Life</t>
+          <t>Absolutely Fabulous: The Movie</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$8,005,586</t>
+          <t>$4,772,155</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Loving</t>
+          <t>Hands of Stone</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$7,456,108</t>
+          <t>$4,712,792</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Shut In</t>
+          <t>Don't Think Twice</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$6,894,711</t>
+          <t>$4,417,667</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>The Brothers Grimsby</t>
+          <t>The Meddler2016 Re-release</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$6,874,837</t>
+          <t>$4,267,218</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>The Danish Girl</t>
+          <t>Ae Dil Hai Mushkil</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$6,607,578</t>
+          <t>$4,264,983</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>The Young Messiah</t>
+          <t>A Hologram for the King</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$6,490,401</t>
+          <t>$4,212,494</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Jackie</t>
+          <t>Swiss Army Man</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$6,469,725</t>
+          <t>$4,210,454</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Southside with You</t>
+          <t>Denial</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>$6,304,223</t>
+          <t>$4,073,489</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Captain Fantastic</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>$5,879,835</t>
+          <t>$3,915,251</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sultan</t>
+          <t>Kabali</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$5,599,781</t>
+          <t>$3,903,095</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Lion</t>
+          <t>The Man Who Knew Infinity</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$5,303,700</t>
+          <t>$3,866,794</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Hunt for the Wilderpeople</t>
+          <t>Where to Invade Next</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$5,205,468</t>
+          <t>$3,827,261</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Bleed for This</t>
+          <t>Max Steel</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$5,083,906</t>
+          <t>$3,818,664</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Incarnate</t>
+          <t>Batman: The Killing Joke</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$4,799,774</t>
+          <t>$3,775,000</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Absolutely Fabulous: The Movie</t>
+          <t>A Monster Calls</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$4,772,155</t>
+          <t>$3,740,823</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Hands of Stone</t>
+          <t>Midnight Special</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$4,712,792</t>
+          <t>$3,712,282</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Don't Think Twice</t>
+          <t>Rules Don't Apply</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$4,417,667</t>
+          <t>$3,652,206</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>The Meddler2016 Re-release</t>
+          <t>Miss Sloane</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$4,367,218</t>
+          <t>$3,500,605</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ae Dil Hai Mushkil</t>
+          <t>A Man Called Ove</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$4,264,983</t>
+          <t>$3,479,315</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A Hologram for the King</t>
+          <t>Indignation</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$4,212,494</t>
+          <t>$3,401,155</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Swiss Army Man</t>
+          <t>Everybody Wants Some!!</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$4,210,454</t>
+          <t>$3,400,278</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>45 Years</t>
+          <t>Maggie's Plan</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$4,105,637</t>
+          <t>$3,351,735</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Denial</t>
+          <t>Sing Street</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$4,073,490</t>
+          <t>$3,237,118</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>The Mermaid</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$3,915,251</t>
+          <t>$3,232,685</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Kabali</t>
+          <t>Green Room</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$3,903,095</t>
+          <t>$3,220,371</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>The Man Who Knew Infinity</t>
+          <t>The Eagle Huntress</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$3,866,794</t>
+          <t>$3,169,351</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Where to Invade Next</t>
+          <t>Our Kind of Traitor</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$3,827,261</t>
+          <t>$3,153,157</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Max Steel</t>
+          <t>Compadres</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$3,818,664</t>
+          <t>$3,127,773</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Batman: The Killing Joke</t>
+          <t>The Other Side of the Door</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$3,775,000</t>
+          <t>$3,000,342</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Midnight Special</t>
+          <t>Anthropoid</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$3,712,282</t>
+          <t>$2,964,845</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Anomalisa</t>
+          <t>The Beatles: Eight Days a Week - The Touring Years</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$3,683,876</t>
+          <t>$2,930,414</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Rules Don't Apply</t>
+          <t>The Oscar Nominated Short Films 2016: Live Action</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$3,652,206</t>
+          <t>$2,816,816</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Miss Sloane</t>
+          <t>Ip Man 3</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$3,484,995</t>
+          <t>$2,679,437</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Indignation</t>
+          <t>Miles Ahead</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$3,401,155</t>
+          <t>$2,610,896</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Everybody Wants Some!!</t>
+          <t>Kapoor &amp; Sons</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$3,400,278</t>
+          <t>$2,607,036</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Maggie's Plan</t>
+          <t>The Disappointments Room</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$3,351,735</t>
+          <t>$2,423,468</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A Man Called Ove</t>
+          <t>Hillsong: Let Hope Rise</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$3,333,992</t>
+          <t>$2,394,386</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sing Street</t>
+          <t>Dear Zindagi</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$3,237,118</t>
+          <t>$2,376,479</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>The Mermaid</t>
+          <t>Elle</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$3,232,685</t>
+          <t>$2,341,534</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Green Room</t>
+          <t>A Aa</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$3,220,371</t>
+          <t>$2,313,043</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Our Kind of Traitor</t>
+          <t>Fan</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$3,153,157</t>
+          <t>$2,300,000</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Compadres</t>
+          <t>Paterson</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$3,127,773</t>
+          <t>$2,152,738</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>The Martian</t>
+          <t>Train to Busan</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$3,088,310</t>
+          <t>$2,129,768</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>The Other Side of the Door</t>
+          <t>I'm Not Ashamed</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$3,000,342</t>
+          <t>$2,082,980</t>
         </is>
       </c>
     </row>
